--- a/natmiOut/OldD0/LR-pairs_lrc2p/Vcan-Cd44.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Vcan-Cd44.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.54662210472061</v>
+        <v>7.172092999999999</v>
       </c>
       <c r="H2">
-        <v>6.54662210472061</v>
+        <v>21.516279</v>
       </c>
       <c r="I2">
-        <v>0.06781118160145715</v>
+        <v>0.07357387076805701</v>
       </c>
       <c r="J2">
-        <v>0.06781118160145715</v>
+        <v>0.07357387076805699</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N2">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O2">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P2">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q2">
-        <v>542.7930487405192</v>
+        <v>2135.98065706469</v>
       </c>
       <c r="R2">
-        <v>542.7930487405192</v>
+        <v>19223.82591358221</v>
       </c>
       <c r="S2">
-        <v>0.04663557105272375</v>
+        <v>0.06512874119555073</v>
       </c>
       <c r="T2">
-        <v>0.04663557105272375</v>
+        <v>0.06512874119555073</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.54662210472061</v>
+        <v>7.172092999999999</v>
       </c>
       <c r="H3">
-        <v>6.54662210472061</v>
+        <v>21.516279</v>
       </c>
       <c r="I3">
-        <v>0.06781118160145715</v>
+        <v>0.07357387076805701</v>
       </c>
       <c r="J3">
-        <v>0.06781118160145715</v>
+        <v>0.07357387076805699</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N3">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O3">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P3">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q3">
-        <v>155.9818435073538</v>
+        <v>174.5712132106896</v>
       </c>
       <c r="R3">
-        <v>155.9818435073538</v>
+        <v>1571.140918896207</v>
       </c>
       <c r="S3">
-        <v>0.01340161294014562</v>
+        <v>0.005322896219957658</v>
       </c>
       <c r="T3">
-        <v>0.01340161294014562</v>
+        <v>0.005322896219957658</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.54662210472061</v>
+        <v>7.172092999999999</v>
       </c>
       <c r="H4">
-        <v>6.54662210472061</v>
+        <v>21.516279</v>
       </c>
       <c r="I4">
-        <v>0.06781118160145715</v>
+        <v>0.07357387076805701</v>
       </c>
       <c r="J4">
-        <v>0.06781118160145715</v>
+        <v>0.07357387076805699</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N4">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O4">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P4">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q4">
-        <v>90.48183109190028</v>
+        <v>102.397650030762</v>
       </c>
       <c r="R4">
-        <v>90.48183109190028</v>
+        <v>921.5788502768579</v>
       </c>
       <c r="S4">
-        <v>0.007773997608587775</v>
+        <v>0.003122233352548613</v>
       </c>
       <c r="T4">
-        <v>0.007773997608587775</v>
+        <v>0.003122233352548612</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>89.4392298282187</v>
+        <v>89.72947699999999</v>
       </c>
       <c r="H5">
-        <v>89.4392298282187</v>
+        <v>269.188431</v>
       </c>
       <c r="I5">
-        <v>0.9264288909852443</v>
+        <v>0.9204767624852804</v>
       </c>
       <c r="J5">
-        <v>0.9264288909852443</v>
+        <v>0.9204767624852804</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N5">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O5">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P5">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q5">
-        <v>7415.578822009102</v>
+        <v>26723.0817057909</v>
       </c>
       <c r="R5">
-        <v>7415.578822009102</v>
+        <v>240507.7353521181</v>
       </c>
       <c r="S5">
-        <v>0.6371300329901645</v>
+        <v>0.8148204276136856</v>
       </c>
       <c r="T5">
-        <v>0.6371300329901645</v>
+        <v>0.8148204276136857</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>89.4392298282187</v>
+        <v>89.72947699999999</v>
       </c>
       <c r="H6">
-        <v>89.4392298282187</v>
+        <v>269.188431</v>
       </c>
       <c r="I6">
-        <v>0.9264288909852443</v>
+        <v>0.9204767624852804</v>
       </c>
       <c r="J6">
-        <v>0.9264288909852443</v>
+        <v>0.9204767624852804</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N6">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O6">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P6">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q6">
-        <v>2131.006758496692</v>
+        <v>2184.046367029914</v>
       </c>
       <c r="R6">
-        <v>2131.006758496692</v>
+        <v>19656.41730326922</v>
       </c>
       <c r="S6">
-        <v>0.1830913592764443</v>
+        <v>0.06659432524676932</v>
       </c>
       <c r="T6">
-        <v>0.1830913592764443</v>
+        <v>0.06659432524676934</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>89.4392298282187</v>
+        <v>89.72947699999999</v>
       </c>
       <c r="H7">
-        <v>89.4392298282187</v>
+        <v>269.188431</v>
       </c>
       <c r="I7">
-        <v>0.9264288909852443</v>
+        <v>0.9204767624852804</v>
       </c>
       <c r="J7">
-        <v>0.9264288909852443</v>
+        <v>0.9204767624852804</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N7">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O7">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P7">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q7">
-        <v>1236.15280626495</v>
+        <v>1281.088739826618</v>
       </c>
       <c r="R7">
-        <v>1236.15280626495</v>
+        <v>11529.79865843956</v>
       </c>
       <c r="S7">
-        <v>0.1062074987186354</v>
+        <v>0.03906200962482549</v>
       </c>
       <c r="T7">
-        <v>0.1062074987186354</v>
+        <v>0.0390620096248255</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.556074488527655</v>
+        <v>0.5799533333333334</v>
       </c>
       <c r="H8">
-        <v>0.556074488527655</v>
+        <v>1.73986</v>
       </c>
       <c r="I8">
-        <v>0.005759927413298506</v>
+        <v>0.005949366746662454</v>
       </c>
       <c r="J8">
-        <v>0.005759927413298506</v>
+        <v>0.005949366746662453</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N8">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O8">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P8">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q8">
-        <v>46.10520694895555</v>
+        <v>172.7207248986022</v>
       </c>
       <c r="R8">
-        <v>46.10520694895555</v>
+        <v>1554.48652408742</v>
       </c>
       <c r="S8">
-        <v>0.003961256798622747</v>
+        <v>0.005266472500030833</v>
       </c>
       <c r="T8">
-        <v>0.003961256798622747</v>
+        <v>0.005266472500030833</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.556074488527655</v>
+        <v>0.5799533333333334</v>
       </c>
       <c r="H9">
-        <v>0.556074488527655</v>
+        <v>1.73986</v>
       </c>
       <c r="I9">
-        <v>0.005759927413298506</v>
+        <v>0.005949366746662454</v>
       </c>
       <c r="J9">
-        <v>0.005759927413298506</v>
+        <v>0.005949366746662453</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N9">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O9">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P9">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q9">
-        <v>13.24920278893265</v>
+        <v>14.11626383059778</v>
       </c>
       <c r="R9">
-        <v>13.24920278893265</v>
+        <v>127.04637447538</v>
       </c>
       <c r="S9">
-        <v>0.001138342024624181</v>
+        <v>0.0004304226682157975</v>
       </c>
       <c r="T9">
-        <v>0.001138342024624181</v>
+        <v>0.0004304226682157975</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.556074488527655</v>
+        <v>0.5799533333333334</v>
       </c>
       <c r="H10">
-        <v>0.556074488527655</v>
+        <v>1.73986</v>
       </c>
       <c r="I10">
-        <v>0.005759927413298506</v>
+        <v>0.005949366746662454</v>
       </c>
       <c r="J10">
-        <v>0.005759927413298506</v>
+        <v>0.005949366746662453</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N10">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O10">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P10">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q10">
-        <v>7.685587642090025</v>
+        <v>8.280129449080002</v>
       </c>
       <c r="R10">
-        <v>7.685587642090025</v>
+        <v>74.52116504172001</v>
       </c>
       <c r="S10">
-        <v>0.0006603285900515788</v>
+        <v>0.0002524715784158232</v>
       </c>
       <c r="T10">
-        <v>0.0006603285900515788</v>
+        <v>0.0002524715784158232</v>
       </c>
     </row>
   </sheetData>
